--- a/NEW HR/OCAMPO, NOVELYN URAM.xlsx
+++ b/NEW HR/OCAMPO, NOVELYN URAM.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29C0AF9-70FD-4E6C-B57D-8B1FB803996E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="5" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -253,12 +252,15 @@
   </si>
   <si>
     <t>PARENTAL 1/10/2023</t>
+  </si>
+  <si>
+    <t>PARENTAL 4/3/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -617,14 +619,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -634,9 +639,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1165,25 +1167,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table14" displayName="Table14" ref="A8:K82" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A8:K82" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table14[EARNED])-SUM(Table14[Absence Undertime W/ Pay])+#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table14[[EARNED ]])-SUM(Table14[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1195,25 +1197,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K57" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K57" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1520,32 +1522,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K82"/>
   <sheetViews>
     <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+      <selection activeCell="C77" sqref="C77:C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1557,16 +1559,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1575,18 +1577,18 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="52">
         <v>40756</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1597,16 +1599,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1614,7 +1616,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1627,24 +1629,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1679,7 +1681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1688,7 +1690,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table14[EARNED])-SUM(Table14[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>53.75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1698,12 +1700,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table14[[EARNED ]])-SUM(Table14[Absence Undertime  W/ Pay])</f>
-        <v>77.5</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>48</v>
       </c>
@@ -1725,7 +1727,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -1745,7 +1747,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <f>EDATE(A11,1)</f>
         <v>43132</v>
@@ -1766,7 +1768,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <f t="shared" ref="A13:A61" si="0">EDATE(A12,1)</f>
         <v>43160</v>
@@ -1787,7 +1789,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <f t="shared" si="0"/>
         <v>43191</v>
@@ -1808,7 +1810,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <f t="shared" si="0"/>
         <v>43221</v>
@@ -1829,7 +1831,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <f t="shared" si="0"/>
         <v>43252</v>
@@ -1850,7 +1852,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <f t="shared" si="0"/>
         <v>43282</v>
@@ -1871,7 +1873,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <f t="shared" si="0"/>
         <v>43313</v>
@@ -1892,7 +1894,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="39"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <f t="shared" si="0"/>
         <v>43344</v>
@@ -1913,7 +1915,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <f t="shared" si="0"/>
         <v>43374</v>
@@ -1934,7 +1936,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <f t="shared" si="0"/>
         <v>43405</v>
@@ -1955,7 +1957,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="39"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <f t="shared" si="0"/>
         <v>43435</v>
@@ -1980,7 +1982,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="39"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>51</v>
       </c>
@@ -1998,7 +2000,7 @@
       <c r="J23" s="13"/>
       <c r="K23" s="46"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <f>EDATE(A22,1)</f>
         <v>43466</v>
@@ -2019,7 +2021,7 @@
       <c r="J24" s="13"/>
       <c r="K24" s="46"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <f t="shared" si="0"/>
         <v>43497</v>
@@ -2040,7 +2042,7 @@
       <c r="J25" s="13"/>
       <c r="K25" s="46"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <f t="shared" si="0"/>
         <v>43525</v>
@@ -2061,7 +2063,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <f t="shared" si="0"/>
         <v>43556</v>
@@ -2082,7 +2084,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <f t="shared" si="0"/>
         <v>43586</v>
@@ -2103,7 +2105,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <f t="shared" si="0"/>
         <v>43617</v>
@@ -2124,7 +2126,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <f t="shared" si="0"/>
         <v>43647</v>
@@ -2145,7 +2147,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <f t="shared" si="0"/>
         <v>43678</v>
@@ -2166,7 +2168,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <f t="shared" si="0"/>
         <v>43709</v>
@@ -2187,7 +2189,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <f t="shared" si="0"/>
         <v>43739</v>
@@ -2208,7 +2210,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <f t="shared" si="0"/>
         <v>43770</v>
@@ -2229,7 +2231,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <f t="shared" si="0"/>
         <v>43800</v>
@@ -2254,7 +2256,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
@@ -2272,7 +2274,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <f>EDATE(A35,1)</f>
         <v>43831</v>
@@ -2293,7 +2295,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <f t="shared" si="0"/>
         <v>43862</v>
@@ -2314,7 +2316,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <f t="shared" si="0"/>
         <v>43891</v>
@@ -2335,7 +2337,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <f t="shared" si="0"/>
         <v>43922</v>
@@ -2356,7 +2358,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <f t="shared" si="0"/>
         <v>43952</v>
@@ -2377,7 +2379,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <f t="shared" si="0"/>
         <v>43983</v>
@@ -2398,7 +2400,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <f t="shared" si="0"/>
         <v>44013</v>
@@ -2419,7 +2421,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <f t="shared" si="0"/>
         <v>44044</v>
@@ -2440,7 +2442,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <f t="shared" si="0"/>
         <v>44075</v>
@@ -2461,7 +2463,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <f t="shared" si="0"/>
         <v>44105</v>
@@ -2482,7 +2484,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <f t="shared" si="0"/>
         <v>44136</v>
@@ -2503,7 +2505,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <f t="shared" si="0"/>
         <v>44166</v>
@@ -2528,7 +2530,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
         <v>49</v>
       </c>
@@ -2546,7 +2548,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <f>EDATE(A48,1)</f>
         <v>44197</v>
@@ -2567,7 +2569,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <f t="shared" si="0"/>
         <v>44228</v>
@@ -2588,7 +2590,7 @@
       <c r="J51" s="13"/>
       <c r="K51" s="16"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <f t="shared" si="0"/>
         <v>44256</v>
@@ -2609,7 +2611,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <f t="shared" si="0"/>
         <v>44287</v>
@@ -2630,7 +2632,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <f t="shared" si="0"/>
         <v>44317</v>
@@ -2651,7 +2653,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <f t="shared" si="0"/>
         <v>44348</v>
@@ -2672,7 +2674,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <f t="shared" si="0"/>
         <v>44378</v>
@@ -2693,7 +2695,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <f t="shared" si="0"/>
         <v>44409</v>
@@ -2714,7 +2716,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <f t="shared" si="0"/>
         <v>44440</v>
@@ -2735,7 +2737,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <f t="shared" si="0"/>
         <v>44470</v>
@@ -2756,7 +2758,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <f t="shared" si="0"/>
         <v>44501</v>
@@ -2777,7 +2779,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <f t="shared" si="0"/>
         <v>44531</v>
@@ -2802,7 +2804,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38" t="s">
         <v>43</v>
       </c>
@@ -2817,7 +2819,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="39"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>44562</v>
       </c>
@@ -2837,7 +2839,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>44593</v>
       </c>
@@ -2857,7 +2859,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <v>44621</v>
       </c>
@@ -2877,7 +2879,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <v>44652</v>
       </c>
@@ -2897,7 +2899,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>44682</v>
       </c>
@@ -2917,7 +2919,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>44713</v>
       </c>
@@ -2937,7 +2939,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>44743</v>
       </c>
@@ -2957,7 +2959,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>44774</v>
       </c>
@@ -2977,7 +2979,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="39"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <v>44805</v>
       </c>
@@ -2997,7 +2999,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>44835</v>
       </c>
@@ -3017,7 +3019,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="39"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>44866</v>
       </c>
@@ -3037,7 +3039,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="39"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>44896</v>
       </c>
@@ -3061,7 +3063,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
         <v>47</v>
       </c>
@@ -3079,7 +3081,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>44927</v>
       </c>
@@ -3103,7 +3105,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>44958</v>
       </c>
@@ -3123,25 +3125,27 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>44986</v>
       </c>
       <c r="B78" s="12"/>
-      <c r="C78" s="14"/>
+      <c r="C78" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="12"/>
       <c r="E78" s="9"/>
       <c r="F78" s="12"/>
-      <c r="G78" s="14" t="str">
-        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="14">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="12"/>
       <c r="I78" s="9"/>
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>45017</v>
       </c>
@@ -3159,7 +3163,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>45047</v>
       </c>
@@ -3177,7 +3181,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>45078</v>
       </c>
@@ -3195,7 +3199,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>45108</v>
       </c>
@@ -3215,23 +3219,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3254,33 +3258,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A10" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="C17:D17"/>
+      <pane ySplit="3690" topLeftCell="A37" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -3292,16 +3296,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -3310,18 +3314,18 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="52">
         <v>40756</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -3332,16 +3336,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -3349,7 +3353,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -3362,24 +3366,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3414,7 +3418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -3433,12 +3437,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>17.725000000000001</v>
+        <v>16.725000000000001</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>48</v>
       </c>
@@ -3460,7 +3464,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -3484,7 +3488,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <f>EDATE(A11,1)</f>
         <v>43132</v>
@@ -3509,7 +3513,7 @@
         <v>43150</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="12" t="s">
         <v>44</v>
@@ -3531,7 +3535,7 @@
         <v>43152</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <f>EDATE(A12,1)</f>
         <v>43160</v>
@@ -3556,7 +3560,7 @@
         <v>43165</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <f t="shared" ref="A15" si="0">EDATE(A14,1)</f>
         <v>43191</v>
@@ -3581,7 +3585,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="12" t="s">
         <v>44</v>
@@ -3603,7 +3607,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>43282</v>
       </c>
@@ -3627,7 +3631,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>43374</v>
       </c>
@@ -3651,7 +3655,7 @@
         <v>43378</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>43405</v>
       </c>
@@ -3673,7 +3677,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="12" t="s">
         <v>44</v>
@@ -3695,7 +3699,7 @@
         <v>43423</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>43435</v>
       </c>
@@ -3719,7 +3723,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="13" t="s">
         <v>53</v>
@@ -3738,7 +3742,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="13" t="s">
         <v>56</v>
@@ -3757,7 +3761,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="13" t="s">
         <v>61</v>
@@ -3779,7 +3783,7 @@
         <v>43462</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
         <v>51</v>
       </c>
@@ -3797,7 +3801,7 @@
       <c r="J25" s="13"/>
       <c r="K25" s="46"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>43466</v>
       </c>
@@ -3821,7 +3825,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>43525</v>
       </c>
@@ -3845,7 +3849,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>43556</v>
       </c>
@@ -3869,7 +3873,7 @@
         <v>43579</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="12" t="s">
         <v>44</v>
@@ -3891,7 +3895,7 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>43678</v>
       </c>
@@ -3915,7 +3919,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>43739</v>
       </c>
@@ -3939,7 +3943,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>43770</v>
       </c>
@@ -3963,7 +3967,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>43800</v>
       </c>
@@ -3987,7 +3991,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38" t="s">
         <v>50</v>
       </c>
@@ -4005,7 +4009,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>44105</v>
       </c>
@@ -4029,7 +4033,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>44166</v>
       </c>
@@ -4053,7 +4057,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
         <v>49</v>
       </c>
@@ -4071,7 +4075,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>44256</v>
       </c>
@@ -4095,7 +4099,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>44348</v>
       </c>
@@ -4119,7 +4123,7 @@
         <v>44371</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>44501</v>
       </c>
@@ -4143,7 +4147,7 @@
         <v>44518</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="12" t="s">
         <v>46</v>
@@ -4163,7 +4167,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="12" t="s">
         <v>67</v>
@@ -4185,7 +4189,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="38" t="s">
         <v>43</v>
       </c>
@@ -4200,7 +4204,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="39"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>44774</v>
       </c>
@@ -4224,7 +4228,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>44835</v>
       </c>
@@ -4248,7 +4252,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>44866</v>
       </c>
@@ -4270,7 +4274,7 @@
         <v>44888</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
       <c r="B47" s="13" t="s">
         <v>44</v>
@@ -4292,7 +4296,7 @@
         <v>44868</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="13" t="s">
         <v>46</v>
@@ -4312,7 +4316,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
         <v>47</v>
       </c>
@@ -4327,7 +4331,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>44927</v>
       </c>
@@ -4348,7 +4352,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
       <c r="B51" s="12" t="s">
         <v>46</v>
@@ -4365,7 +4369,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="12" t="s">
         <v>44</v>
@@ -4384,22 +4388,32 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="24"/>
-      <c r="B53" s="12"/>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="24">
+        <v>44986</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="C53" s="14"/>
       <c r="D53" s="12"/>
       <c r="E53" s="9"/>
       <c r="F53" s="12"/>
       <c r="G53" s="14"/>
-      <c r="H53" s="12"/>
+      <c r="H53" s="12">
+        <v>1</v>
+      </c>
       <c r="I53" s="9"/>
       <c r="J53" s="12"/>
-      <c r="K53" s="21"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="39">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
-      <c r="B54" s="12"/>
+      <c r="B54" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="C54" s="14"/>
       <c r="D54" s="12"/>
       <c r="E54" s="9"/>
@@ -4408,9 +4422,11 @@
       <c r="H54" s="12"/>
       <c r="I54" s="9"/>
       <c r="J54" s="12"/>
-      <c r="K54" s="21"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K54" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
       <c r="B55" s="12"/>
       <c r="C55" s="14"/>
@@ -4423,7 +4439,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
       <c r="B56" s="12"/>
       <c r="C56" s="14"/>
@@ -4436,7 +4452,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="12"/>
       <c r="C57" s="14"/>
@@ -4464,10 +4480,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4490,28 +4506,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="40" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="40" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="55" t="s">
         <v>33</v>
       </c>
@@ -4524,7 +4540,7 @@
       <c r="K1" s="56"/>
       <c r="L1" s="56"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -4553,7 +4569,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>88.875</v>
       </c>
@@ -4577,17 +4593,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="34"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="41" t="s">
         <v>28</v>
       </c>
@@ -4608,7 +4624,7 @@
       <c r="K6" s="57"/>
       <c r="L6" s="57"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="40">
         <v>1</v>
       </c>
@@ -4635,7 +4651,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="40">
         <v>2</v>
       </c>
@@ -4661,7 +4677,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="40">
         <v>3</v>
       </c>
@@ -4687,7 +4703,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="40">
         <v>4</v>
       </c>
@@ -4713,7 +4729,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="40">
         <v>5</v>
       </c>
@@ -4739,7 +4755,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="40">
         <v>6</v>
       </c>
@@ -4765,7 +4781,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="40">
         <v>7</v>
       </c>
@@ -4791,7 +4807,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="40">
         <v>8</v>
       </c>
@@ -4817,7 +4833,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="40">
         <v>9</v>
       </c>
@@ -4837,7 +4853,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="40">
         <v>10</v>
       </c>
@@ -4857,7 +4873,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="40">
         <v>11</v>
       </c>
@@ -4877,7 +4893,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="40">
         <v>12</v>
       </c>
@@ -4898,7 +4914,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="40">
         <v>13</v>
       </c>
@@ -4919,7 +4935,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="40">
         <v>14</v>
       </c>
@@ -4940,7 +4956,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="40">
         <v>15</v>
       </c>
@@ -4961,7 +4977,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="40">
         <v>16</v>
       </c>
@@ -4982,7 +4998,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="40">
         <v>17</v>
       </c>
@@ -5003,7 +5019,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="40">
         <v>18</v>
       </c>
@@ -5024,7 +5040,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="40">
         <v>19</v>
       </c>
@@ -5045,7 +5061,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="40">
         <v>20</v>
       </c>
@@ -5066,7 +5082,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="40">
         <v>21</v>
       </c>
@@ -5087,7 +5103,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="40">
         <v>22</v>
       </c>
@@ -5108,7 +5124,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="40">
         <v>23</v>
       </c>
@@ -5129,7 +5145,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="40">
         <v>24</v>
       </c>
@@ -5150,7 +5166,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="40">
         <v>25</v>
       </c>
@@ -5171,7 +5187,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="40">
         <v>26</v>
       </c>
@@ -5192,7 +5208,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="40">
         <v>27</v>
       </c>
@@ -5213,7 +5229,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="40">
         <v>28</v>
       </c>
@@ -5234,7 +5250,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="40">
         <v>29</v>
       </c>
@@ -5255,7 +5271,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="40">
         <v>30</v>
       </c>
@@ -5276,7 +5292,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="40">
         <v>31</v>
       </c>
@@ -5297,7 +5313,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="40">
         <v>32</v>
       </c>
@@ -5306,7 +5322,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="40">
         <v>33</v>
       </c>
@@ -5315,7 +5331,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="40">
         <v>34</v>
       </c>
@@ -5324,7 +5340,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="40">
         <v>35</v>
       </c>
@@ -5333,7 +5349,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="40">
         <v>36</v>
       </c>
@@ -5342,7 +5358,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="40">
         <v>37</v>
       </c>
@@ -5351,7 +5367,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="40">
         <v>38</v>
       </c>
@@ -5360,7 +5376,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="40">
         <v>39</v>
       </c>
@@ -5369,7 +5385,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="40">
         <v>40</v>
       </c>
@@ -5378,7 +5394,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="40">
         <v>41</v>
       </c>
@@ -5387,7 +5403,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="40">
         <v>42</v>
       </c>
@@ -5396,7 +5412,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="40">
         <v>43</v>
       </c>
@@ -5405,7 +5421,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="40">
         <v>44</v>
       </c>
@@ -5414,7 +5430,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="40">
         <v>45</v>
       </c>
@@ -5423,7 +5439,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="40">
         <v>46</v>
       </c>
@@ -5432,7 +5448,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="40">
         <v>47</v>
       </c>
@@ -5441,7 +5457,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="40">
         <v>48</v>
       </c>
@@ -5450,7 +5466,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="40">
         <v>49</v>
       </c>
@@ -5459,7 +5475,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="40">
         <v>50</v>
       </c>
@@ -5468,7 +5484,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="40">
         <v>51</v>
       </c>
@@ -5477,7 +5493,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="40">
         <v>52</v>
       </c>
@@ -5486,7 +5502,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="40">
         <v>53</v>
       </c>
@@ -5495,7 +5511,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="40">
         <v>54</v>
       </c>
@@ -5504,7 +5520,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="40">
         <v>55</v>
       </c>
@@ -5513,7 +5529,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="40">
         <v>56</v>
       </c>
@@ -5522,7 +5538,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="40">
         <v>57</v>
       </c>
@@ -5531,7 +5547,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="40">
         <v>58</v>
       </c>
@@ -5540,7 +5556,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="40">
         <v>59</v>
       </c>
@@ -5549,7 +5565,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="40">
         <v>60</v>
       </c>
@@ -5558,7 +5574,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/OCAMPO, NOVELYN URAM.xlsx
+++ b/NEW HR/OCAMPO, NOVELYN URAM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="76">
   <si>
     <t>PERIOD</t>
   </si>
@@ -255,6 +255,15 @@
   </si>
   <si>
     <t>PARENTAL 4/3/2023</t>
+  </si>
+  <si>
+    <t>CSWDO</t>
+  </si>
+  <si>
+    <t>SL(4-0-0)</t>
+  </si>
+  <si>
+    <t>4/27,28, 5/2,3/2023</t>
   </si>
 </sst>
 </file>
@@ -619,17 +628,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -639,6 +645,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1529,7 +1538,7 @@
   <dimension ref="A2:K82"/>
   <sheetViews>
     <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77:C78"/>
+      <selection activeCell="C78" sqref="C78:C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,14 +1568,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1577,16 +1586,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="51">
         <v>40756</v>
       </c>
-      <c r="G3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1599,14 +1608,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1632,18 +1641,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1690,7 +1699,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table14[EARNED])-SUM(Table14[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1700,7 +1709,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table14[[EARNED ]])-SUM(Table14[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>80</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3150,13 +3159,15 @@
         <v>45017</v>
       </c>
       <c r="B79" s="12"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="12"/>
       <c r="E79" s="9"/>
       <c r="F79" s="12"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="12"/>
       <c r="I79" s="9"/>
@@ -3219,17 +3230,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3266,7 +3277,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A37" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3296,14 +3308,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3314,16 +3326,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="51">
         <v>40756</v>
       </c>
-      <c r="G3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3336,14 +3348,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="F4" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="49"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3369,18 +3383,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3437,7 +3451,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>16.725000000000001</v>
+        <v>12.725000000000001</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4427,17 +4441,25 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
-      <c r="B55" s="12"/>
+      <c r="A55" s="24">
+        <v>45017</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="C55" s="14"/>
       <c r="D55" s="12"/>
       <c r="E55" s="9"/>
       <c r="F55" s="12"/>
       <c r="G55" s="14"/>
-      <c r="H55" s="12"/>
+      <c r="H55" s="12">
+        <v>4</v>
+      </c>
       <c r="I55" s="9"/>
       <c r="J55" s="12"/>
-      <c r="K55" s="21"/>
+      <c r="K55" s="21" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>

--- a/NEW HR/OCAMPO, NOVELYN URAM.xlsx
+++ b/NEW HR/OCAMPO, NOVELYN URAM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="78">
   <si>
     <t>PERIOD</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>4/27,28, 5/2,3/2023</t>
+  </si>
+  <si>
+    <t>SL(12-0-0)</t>
+  </si>
+  <si>
+    <t>5/10-12,15-19,22-24/2023</t>
   </si>
 </sst>
 </file>
@@ -628,14 +634,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -645,9 +654,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1568,14 +1574,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1586,16 +1592,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="52">
         <v>40756</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1608,14 +1614,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1641,18 +1647,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3230,17 +3236,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3278,7 +3284,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3308,14 +3314,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3326,16 +3332,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="52">
         <v>40756</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3348,16 +3354,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="49"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3383,18 +3389,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3451,7 +3457,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>12.725000000000001</v>
+        <v>0.72500000000000142</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4462,17 +4468,25 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="24"/>
-      <c r="B56" s="12"/>
+      <c r="A56" s="24">
+        <v>45047</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="C56" s="14"/>
       <c r="D56" s="12"/>
       <c r="E56" s="9"/>
       <c r="F56" s="12"/>
       <c r="G56" s="14"/>
-      <c r="H56" s="12"/>
+      <c r="H56" s="12">
+        <v>12</v>
+      </c>
       <c r="I56" s="9"/>
       <c r="J56" s="12"/>
-      <c r="K56" s="21"/>
+      <c r="K56" s="21" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>

--- a/NEW HR/OCAMPO, NOVELYN URAM.xlsx
+++ b/NEW HR/OCAMPO, NOVELYN URAM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="81">
   <si>
     <t>PERIOD</t>
   </si>
@@ -270,6 +270,15 @@
   </si>
   <si>
     <t>5/10-12,15-19,22-24/2023</t>
+  </si>
+  <si>
+    <t>5/29,30/2023</t>
+  </si>
+  <si>
+    <t>ML(60-0-0)</t>
+  </si>
+  <si>
+    <t>5/31-8/12/2023</t>
   </si>
 </sst>
 </file>
@@ -336,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -491,11 +500,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -631,6 +651,21 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1212,7 +1247,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K57" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K70" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1543,8 +1578,9 @@
   </sheetPr>
   <dimension ref="A2:K82"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78:C79"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,62 +1602,62 @@
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="47"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="57">
         <v>40756</v>
       </c>
-      <c r="G3" s="48"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="47"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1647,18 +1683,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1705,7 +1741,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table14[EARNED])-SUM(Table14[Absence Undertime W/ Pay])</f>
-        <v>55</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1715,7 +1751,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table14[[EARNED ]])-SUM(Table14[Absence Undertime  W/ Pay])</f>
-        <v>80</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3184,19 +3220,25 @@
       <c r="A80" s="24">
         <v>45047</v>
       </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="14"/>
+      <c r="B80" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="12"/>
       <c r="E80" s="9"/>
       <c r="F80" s="12"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="14">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="12"/>
       <c r="I80" s="9"/>
       <c r="J80" s="12"/>
-      <c r="K80" s="21"/>
+      <c r="K80" s="21" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
@@ -3279,12 +3321,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K57"/>
+  <dimension ref="A2:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A37" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A49" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
+      <selection pane="bottomLeft" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3306,64 +3348,64 @@
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="47"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="57">
         <v>40756</v>
       </c>
-      <c r="G3" s="48"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="47"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3389,18 +3431,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3447,7 +3489,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>77.875</v>
+        <v>134.125</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3457,7 +3499,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>0.72500000000000142</v>
+        <v>52.475000000000001</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3491,13 +3533,15 @@
       <c r="B11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D11" s="12"/>
       <c r="E11" s="9"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="14" t="str">
+      <c r="G11" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H11" s="12">
         <v>2</v>
@@ -3516,13 +3560,15 @@
       <c r="B12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="14" t="str">
+      <c r="G12" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H12" s="12">
         <v>1</v>
@@ -3538,13 +3584,15 @@
       <c r="B13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D13" s="12"/>
       <c r="E13" s="9"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="14" t="str">
+      <c r="G13" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H13" s="12">
         <v>1</v>
@@ -3563,13 +3611,15 @@
       <c r="B14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D14" s="12"/>
       <c r="E14" s="9"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="14" t="str">
+      <c r="G14" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H14" s="12">
         <v>1</v>
@@ -3588,13 +3638,15 @@
       <c r="B15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D15" s="12"/>
       <c r="E15" s="9"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="14" t="str">
+      <c r="G15" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H15" s="12">
         <v>2</v>
@@ -3610,13 +3662,15 @@
       <c r="B16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D16" s="12"/>
       <c r="E16" s="9"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="14" t="str">
+      <c r="G16" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H16" s="12">
         <v>1</v>
@@ -3634,13 +3688,15 @@
       <c r="B17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D17" s="12"/>
       <c r="E17" s="9"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="14" t="str">
+      <c r="G17" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H17" s="12">
         <v>3</v>
@@ -3658,13 +3714,15 @@
       <c r="B18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="14" t="str">
+      <c r="G18" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H18" s="12">
         <v>1</v>
@@ -3682,13 +3740,15 @@
       <c r="B19" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D19" s="12"/>
       <c r="E19" s="9"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="14" t="str">
+      <c r="G19" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="9"/>
@@ -3702,13 +3762,15 @@
       <c r="B20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D20" s="12"/>
       <c r="E20" s="9"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="14" t="str">
+      <c r="G20" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H20" s="12">
         <v>1</v>
@@ -3726,13 +3788,15 @@
       <c r="B21" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="14"/>
+      <c r="C21" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="14" t="str">
+      <c r="G21" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H21" s="12">
         <v>2</v>
@@ -3748,7 +3812,9 @@
       <c r="B22" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="14"/>
+      <c r="C22" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D22" s="13"/>
       <c r="E22" s="10"/>
       <c r="F22" s="13"/>
@@ -3767,7 +3833,9 @@
       <c r="B23" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="14"/>
+      <c r="C23" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D23" s="13"/>
       <c r="E23" s="10"/>
       <c r="F23" s="13"/>
@@ -3786,15 +3854,17 @@
       <c r="B24" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D24" s="13">
         <v>1</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="14" t="str">
+      <c r="G24" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="10"/>
@@ -3808,13 +3878,15 @@
         <v>51</v>
       </c>
       <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
+      <c r="C25" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D25" s="13"/>
       <c r="E25" s="10"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="14" t="str">
+      <c r="G25" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="10"/>
@@ -3828,13 +3900,15 @@
       <c r="B26" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="14"/>
+      <c r="C26" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D26" s="13"/>
       <c r="E26" s="10"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="14" t="str">
+      <c r="G26" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H26" s="13">
         <v>1</v>
@@ -3852,13 +3926,15 @@
       <c r="B27" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="14"/>
+      <c r="C27" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D27" s="12"/>
       <c r="E27" s="9"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="14" t="str">
+      <c r="G27" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H27" s="12">
         <v>2</v>
@@ -3876,13 +3952,15 @@
       <c r="B28" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="14"/>
+      <c r="C28" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D28" s="12"/>
       <c r="E28" s="9"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="14" t="str">
+      <c r="G28" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H28" s="12">
         <v>1</v>
@@ -3898,13 +3976,15 @@
       <c r="B29" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="14"/>
+      <c r="C29" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D29" s="12"/>
       <c r="E29" s="9"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="14" t="str">
+      <c r="G29" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H29" s="12">
         <v>1</v>
@@ -3922,13 +4002,15 @@
       <c r="B30" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="14"/>
+      <c r="C30" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D30" s="12"/>
       <c r="E30" s="9"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="14" t="str">
+      <c r="G30" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H30" s="12">
         <v>1</v>
@@ -3946,13 +4028,15 @@
       <c r="B31" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="14"/>
+      <c r="C31" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D31" s="12"/>
       <c r="E31" s="9"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="14" t="str">
+      <c r="G31" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H31" s="12">
         <v>1</v>
@@ -3970,13 +4054,15 @@
       <c r="B32" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="14"/>
+      <c r="C32" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D32" s="12"/>
       <c r="E32" s="9"/>
       <c r="F32" s="12"/>
-      <c r="G32" s="14" t="str">
+      <c r="G32" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H32" s="12">
         <v>1</v>
@@ -3994,15 +4080,17 @@
       <c r="B33" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="14"/>
+      <c r="C33" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D33" s="12">
         <v>2</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="14" t="str">
+      <c r="G33" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="9"/>
@@ -4016,13 +4104,15 @@
         <v>50</v>
       </c>
       <c r="B34" s="12"/>
-      <c r="C34" s="14"/>
+      <c r="C34" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D34" s="12"/>
       <c r="E34" s="9"/>
       <c r="F34" s="12"/>
-      <c r="G34" s="14" t="str">
+      <c r="G34" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="9"/>
@@ -4036,13 +4126,15 @@
       <c r="B35" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="14"/>
+      <c r="C35" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D35" s="12"/>
       <c r="E35" s="9"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="14" t="str">
+      <c r="G35" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H35" s="12">
         <v>3</v>
@@ -4060,15 +4152,17 @@
       <c r="B36" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="14"/>
+      <c r="C36" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D36" s="12">
         <v>2</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="14" t="str">
+      <c r="G36" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="9"/>
@@ -4082,13 +4176,15 @@
         <v>49</v>
       </c>
       <c r="B37" s="12"/>
-      <c r="C37" s="14"/>
+      <c r="C37" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D37" s="12"/>
       <c r="E37" s="9"/>
       <c r="F37" s="12"/>
-      <c r="G37" s="14" t="str">
+      <c r="G37" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="9"/>
@@ -4102,15 +4198,17 @@
       <c r="B38" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="14"/>
+      <c r="C38" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D38" s="13">
         <v>1</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="13"/>
-      <c r="G38" s="14" t="str">
+      <c r="G38" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="9"/>
@@ -4126,13 +4224,15 @@
       <c r="B39" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="14"/>
+      <c r="C39" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D39" s="12"/>
       <c r="E39" s="9"/>
       <c r="F39" s="12"/>
-      <c r="G39" s="14" t="str">
+      <c r="G39" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H39" s="12">
         <v>1</v>
@@ -4150,13 +4250,15 @@
       <c r="B40" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="14"/>
+      <c r="C40" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D40" s="12"/>
       <c r="E40" s="9"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="14" t="str">
+      <c r="G40" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H40" s="12">
         <v>1</v>
@@ -4172,13 +4274,15 @@
       <c r="B41" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="14"/>
+      <c r="C41" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D41" s="12"/>
       <c r="E41" s="9"/>
       <c r="F41" s="12"/>
-      <c r="G41" s="14" t="str">
+      <c r="G41" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="9"/>
@@ -4192,15 +4296,17 @@
       <c r="B42" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="14"/>
+      <c r="C42" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D42" s="12">
         <v>5</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="12"/>
-      <c r="G42" s="14" t="str">
+      <c r="G42" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="9"/>
@@ -4231,13 +4337,15 @@
       <c r="B44" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="14"/>
+      <c r="C44" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D44" s="12"/>
       <c r="E44" s="9"/>
       <c r="F44" s="12"/>
-      <c r="G44" s="14" t="str">
+      <c r="G44" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H44" s="12">
         <v>1</v>
@@ -4255,13 +4363,15 @@
       <c r="B45" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="14"/>
+      <c r="C45" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D45" s="12"/>
       <c r="E45" s="9"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="14" t="str">
+      <c r="G45" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H45" s="12">
         <v>1</v>
@@ -4279,13 +4389,15 @@
       <c r="B46" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="14"/>
+      <c r="C46" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D46" s="12"/>
       <c r="E46" s="9"/>
       <c r="F46" s="12"/>
-      <c r="G46" s="14" t="str">
+      <c r="G46" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="9"/>
@@ -4299,13 +4411,15 @@
       <c r="B47" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="14"/>
+      <c r="C47" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D47" s="13"/>
       <c r="E47" s="10"/>
       <c r="F47" s="13"/>
-      <c r="G47" s="14" t="str">
+      <c r="G47" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H47" s="13">
         <v>1</v>
@@ -4321,13 +4435,15 @@
       <c r="B48" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="14"/>
+      <c r="C48" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D48" s="13"/>
       <c r="E48" s="10"/>
       <c r="F48" s="13"/>
-      <c r="G48" s="14" t="str">
+      <c r="G48" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="10"/>
@@ -4345,7 +4461,10 @@
       <c r="D49" s="12"/>
       <c r="E49" s="9"/>
       <c r="F49" s="12"/>
-      <c r="G49" s="14"/>
+      <c r="G49" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H49" s="12"/>
       <c r="I49" s="9"/>
       <c r="J49" s="12"/>
@@ -4358,11 +4477,16 @@
       <c r="B50" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="14"/>
+      <c r="C50" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D50" s="12"/>
       <c r="E50" s="9"/>
       <c r="F50" s="12"/>
-      <c r="G50" s="14"/>
+      <c r="G50" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H50" s="12">
         <v>2</v>
       </c>
@@ -4377,11 +4501,16 @@
       <c r="B51" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="14"/>
+      <c r="C51" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D51" s="12"/>
       <c r="E51" s="9"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="14"/>
+      <c r="G51" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H51" s="12"/>
       <c r="I51" s="9"/>
       <c r="J51" s="12"/>
@@ -4394,11 +4523,16 @@
       <c r="B52" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="14"/>
+      <c r="C52" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D52" s="12"/>
       <c r="E52" s="9"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="14"/>
+      <c r="G52" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H52" s="12">
         <v>1</v>
       </c>
@@ -4415,11 +4549,16 @@
       <c r="B53" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="14"/>
+      <c r="C53" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D53" s="12"/>
       <c r="E53" s="9"/>
       <c r="F53" s="12"/>
-      <c r="G53" s="14"/>
+      <c r="G53" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H53" s="12">
         <v>1</v>
       </c>
@@ -4434,11 +4573,16 @@
       <c r="B54" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="14"/>
+      <c r="C54" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D54" s="12"/>
       <c r="E54" s="9"/>
       <c r="F54" s="12"/>
-      <c r="G54" s="14"/>
+      <c r="G54" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H54" s="12"/>
       <c r="I54" s="9"/>
       <c r="J54" s="12"/>
@@ -4453,11 +4597,16 @@
       <c r="B55" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="14"/>
+      <c r="C55" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D55" s="12"/>
       <c r="E55" s="9"/>
       <c r="F55" s="12"/>
-      <c r="G55" s="14"/>
+      <c r="G55" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H55" s="12">
         <v>4</v>
       </c>
@@ -4474,11 +4623,16 @@
       <c r="B56" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="14"/>
+      <c r="C56" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D56" s="12"/>
       <c r="E56" s="9"/>
       <c r="F56" s="12"/>
-      <c r="G56" s="14"/>
+      <c r="G56" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H56" s="12">
         <v>12</v>
       </c>
@@ -4489,17 +4643,238 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="24"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="14"/>
+      <c r="A57" s="24">
+        <v>45078</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D57" s="12"/>
       <c r="E57" s="9"/>
       <c r="F57" s="12"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="12"/>
+      <c r="G57" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H57" s="12">
+        <v>2</v>
+      </c>
       <c r="I57" s="9"/>
       <c r="J57" s="12"/>
-      <c r="K57" s="21"/>
+      <c r="K57" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="47"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H58" s="48"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="21"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="47"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H59" s="48"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="21"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="47"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H60" s="48"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="21"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="47"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H61" s="48"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="21"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="47"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H62" s="48"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="21"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="47"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H63" s="48"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="21"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="47"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H64" s="48"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="21"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="47"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H65" s="48"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="21"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="47"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H66" s="48"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="21"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="47"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H67" s="48"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="21"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="47"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H68" s="48"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="21"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="47"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H69" s="48"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="21"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="49"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="50" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H70" s="51"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4515,7 +4890,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
@@ -4564,17 +4939,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="J1" s="56" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -4653,12 +5028,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="45"/>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="40">

--- a/NEW HR/OCAMPO, NOVELYN URAM.xlsx
+++ b/NEW HR/OCAMPO, NOVELYN URAM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="84">
   <si>
     <t>PERIOD</t>
   </si>
@@ -279,6 +279,15 @@
   </si>
   <si>
     <t>5/31-8/12/2023</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>9/13-15/2023</t>
+  </si>
+  <si>
+    <t>9/18-21/2023</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1226,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A8:K82" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A8:K86" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1576,11 +1585,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K82"/>
+  <dimension ref="A2:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,7 +1750,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table14[EARNED])-SUM(Table14[Absence Undertime W/ Pay])</f>
-        <v>56.25</v>
+        <v>61.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1751,7 +1760,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table14[[EARNED ]])-SUM(Table14[Absence Undertime  W/ Pay])</f>
-        <v>81.25</v>
+        <v>86.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3245,13 +3254,15 @@
         <v>45078</v>
       </c>
       <c r="B81" s="12"/>
-      <c r="C81" s="14"/>
+      <c r="C81" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="12"/>
       <c r="E81" s="9"/>
       <c r="F81" s="12"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="14">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="12"/>
       <c r="I81" s="9"/>
@@ -3263,18 +3274,94 @@
         <v>45108</v>
       </c>
       <c r="B82" s="12"/>
-      <c r="C82" s="14"/>
+      <c r="C82" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="12"/>
       <c r="E82" s="9"/>
       <c r="F82" s="12"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="14">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="12"/>
       <c r="I82" s="9"/>
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="47">
+        <v>45139</v>
+      </c>
+      <c r="B83" s="21"/>
+      <c r="C83" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D83" s="48"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="14">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H83" s="48"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="21"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="47">
+        <v>45170</v>
+      </c>
+      <c r="B84" s="21"/>
+      <c r="C84" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D84" s="48"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="14">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H84" s="48"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="21"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="47">
+        <v>45200</v>
+      </c>
+      <c r="B85" s="21"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="14" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H85" s="48"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="21"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="49"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="50" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H86" s="51"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3323,10 +3410,10 @@
   </sheetPr>
   <dimension ref="A2:K70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A49" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K57" sqref="K57"/>
+      <selection pane="bottomLeft" activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3489,7 +3576,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>134.125</v>
+        <v>131.125</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3499,7 +3586,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>52.475000000000001</v>
+        <v>48.475000000000001</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4669,10 +4756,16 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="47"/>
-      <c r="B58" s="21"/>
+      <c r="A58" s="47">
+        <v>45170</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>81</v>
+      </c>
       <c r="C58" s="14"/>
-      <c r="D58" s="48"/>
+      <c r="D58" s="48">
+        <v>3</v>
+      </c>
       <c r="E58" s="9"/>
       <c r="F58" s="21"/>
       <c r="G58" s="14" t="str">
@@ -4682,11 +4775,15 @@
       <c r="H58" s="48"/>
       <c r="I58" s="9"/>
       <c r="J58" s="12"/>
-      <c r="K58" s="21"/>
+      <c r="K58" s="21" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="47"/>
-      <c r="B59" s="21"/>
+      <c r="B59" s="21" t="s">
+        <v>74</v>
+      </c>
       <c r="C59" s="14"/>
       <c r="D59" s="48"/>
       <c r="E59" s="9"/>
@@ -4695,10 +4792,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H59" s="48"/>
+      <c r="H59" s="48">
+        <v>4</v>
+      </c>
       <c r="I59" s="9"/>
       <c r="J59" s="12"/>
-      <c r="K59" s="21"/>
+      <c r="K59" s="21" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="47"/>
